--- a/TestData/Oppurtunities/AddProduct.xlsx
+++ b/TestData/Oppurtunities/AddProduct.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Run</t>
   </si>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t xml:space="preserve">Test_Op1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_Op2
 </t>
   </si>
 </sst>
@@ -433,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +506,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -514,9 +518,32 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>4</v>
       </c>
     </row>
